--- a/natmiOut/OldD2/LR-pairs_lrc2p/Gdf11-Acvr2b.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Gdf11-Acvr2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.1538363351845</v>
+        <v>1.157479</v>
       </c>
       <c r="H2">
-        <v>1.1538363351845</v>
+        <v>2.314958</v>
       </c>
       <c r="I2">
-        <v>0.1307164151340175</v>
+        <v>0.1271864703226002</v>
       </c>
       <c r="J2">
-        <v>0.1307164151340175</v>
+        <v>0.1061280697012296</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.87982053014031</v>
+        <v>1.921801</v>
       </c>
       <c r="N2">
-        <v>1.87982053014031</v>
+        <v>3.843602</v>
       </c>
       <c r="O2">
-        <v>0.3139184641402641</v>
+        <v>0.2963026861879742</v>
       </c>
       <c r="P2">
-        <v>0.3139184641402641</v>
+        <v>0.2443427896918877</v>
       </c>
       <c r="Q2">
-        <v>2.169005231301679</v>
+        <v>2.224444299679</v>
       </c>
       <c r="R2">
-        <v>2.169005231301679</v>
+        <v>8.897777198716</v>
       </c>
       <c r="S2">
-        <v>0.04103429627679195</v>
+        <v>0.03768569280335349</v>
       </c>
       <c r="T2">
-        <v>0.04103429627679195</v>
+        <v>0.02593162861541355</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.1538363351845</v>
+        <v>1.157479</v>
       </c>
       <c r="H3">
-        <v>1.1538363351845</v>
+        <v>2.314958</v>
       </c>
       <c r="I3">
-        <v>0.1307164151340175</v>
+        <v>0.1271864703226002</v>
       </c>
       <c r="J3">
-        <v>0.1307164151340175</v>
+        <v>0.1061280697012296</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.140412666828495</v>
+        <v>0.1523196666666667</v>
       </c>
       <c r="N3">
-        <v>0.140412666828495</v>
+        <v>0.456959</v>
       </c>
       <c r="O3">
-        <v>0.02344805156125716</v>
+        <v>0.02348459928608122</v>
       </c>
       <c r="P3">
-        <v>0.02344805156125716</v>
+        <v>0.02904947932559493</v>
       </c>
       <c r="Q3">
-        <v>0.1620132369068729</v>
+        <v>0.1763068154536666</v>
       </c>
       <c r="R3">
-        <v>0.1620132369068729</v>
+        <v>1.057840892722</v>
       </c>
       <c r="S3">
-        <v>0.003065045241965138</v>
+        <v>0.002986923290137325</v>
       </c>
       <c r="T3">
-        <v>0.003065045241965138</v>
+        <v>0.003082965166651168</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.1538363351845</v>
+        <v>1.157479</v>
       </c>
       <c r="H4">
-        <v>1.1538363351845</v>
+        <v>2.314958</v>
       </c>
       <c r="I4">
-        <v>0.1307164151340175</v>
+        <v>0.1271864703226002</v>
       </c>
       <c r="J4">
-        <v>0.1307164151340175</v>
+        <v>0.1061280697012296</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.983069956635791</v>
+        <v>0.4109286666666667</v>
       </c>
       <c r="N4">
-        <v>0.983069956635791</v>
+        <v>1.232786</v>
       </c>
       <c r="O4">
-        <v>0.164166635049203</v>
+        <v>0.06335685524410488</v>
       </c>
       <c r="P4">
-        <v>0.164166635049203</v>
+        <v>0.07836981309019599</v>
       </c>
       <c r="Q4">
-        <v>1.134301835994626</v>
+        <v>0.4756413021646667</v>
       </c>
       <c r="R4">
-        <v>1.134301835994626</v>
+        <v>2.853847812988</v>
       </c>
       <c r="S4">
-        <v>0.02145927401824637</v>
+        <v>0.008058134789237619</v>
       </c>
       <c r="T4">
-        <v>0.02145927401824637</v>
+        <v>0.008317236986108657</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.1538363351845</v>
+        <v>1.157479</v>
       </c>
       <c r="H5">
-        <v>1.1538363351845</v>
+        <v>2.314958</v>
       </c>
       <c r="I5">
-        <v>0.1307164151340175</v>
+        <v>0.1271864703226002</v>
       </c>
       <c r="J5">
-        <v>0.1307164151340175</v>
+        <v>0.1061280697012296</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.1836409249962</v>
+        <v>0.9978816666666667</v>
       </c>
       <c r="N5">
-        <v>1.1836409249962</v>
+        <v>2.993645</v>
       </c>
       <c r="O5">
-        <v>0.1976607528808269</v>
+        <v>0.1538530879789666</v>
       </c>
       <c r="P5">
-        <v>0.1976607528808269</v>
+        <v>0.1903099151907953</v>
       </c>
       <c r="Q5">
-        <v>1.365727907072007</v>
+        <v>1.155027073651667</v>
       </c>
       <c r="R5">
-        <v>1.365727907072007</v>
+        <v>6.930162441909999</v>
       </c>
       <c r="S5">
-        <v>0.02583750502927261</v>
+        <v>0.01956803120827723</v>
       </c>
       <c r="T5">
-        <v>0.02583750502927261</v>
+        <v>0.02019722394420382</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.1538363351845</v>
+        <v>1.157479</v>
       </c>
       <c r="H6">
-        <v>1.1538363351845</v>
+        <v>2.314958</v>
       </c>
       <c r="I6">
-        <v>0.1307164151340175</v>
+        <v>0.1271864703226002</v>
       </c>
       <c r="J6">
-        <v>0.1307164151340175</v>
+        <v>0.1061280697012296</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.80130046537217</v>
+        <v>1.197361</v>
       </c>
       <c r="N6">
-        <v>1.80130046537217</v>
+        <v>3.592083</v>
       </c>
       <c r="O6">
-        <v>0.3008060963684488</v>
+        <v>0.1846087501446398</v>
       </c>
       <c r="P6">
-        <v>0.3008060963684488</v>
+        <v>0.2283533989796043</v>
       </c>
       <c r="Q6">
-        <v>2.078405927531159</v>
+        <v>1.385920212919</v>
       </c>
       <c r="R6">
-        <v>2.078405927531159</v>
+        <v>8.315521277513998</v>
       </c>
       <c r="S6">
-        <v>0.03932029456774143</v>
+        <v>0.02347973532156354</v>
       </c>
       <c r="T6">
-        <v>0.03932029456774143</v>
+        <v>0.02423470544342014</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.78117188688308</v>
+        <v>1.157479</v>
       </c>
       <c r="H7">
-        <v>1.78117188688308</v>
+        <v>2.314958</v>
       </c>
       <c r="I7">
-        <v>0.2017863337209088</v>
+        <v>0.1271864703226002</v>
       </c>
       <c r="J7">
-        <v>0.2017863337209088</v>
+        <v>0.1061280697012296</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.87982053014031</v>
+        <v>1.8056465</v>
       </c>
       <c r="N7">
-        <v>1.87982053014031</v>
+        <v>3.611293</v>
       </c>
       <c r="O7">
-        <v>0.3139184641402641</v>
+        <v>0.2783940211582333</v>
       </c>
       <c r="P7">
-        <v>0.3139184641402641</v>
+        <v>0.2295746037219218</v>
       </c>
       <c r="Q7">
-        <v>3.348283480671567</v>
+        <v>2.0899979051735</v>
       </c>
       <c r="R7">
-        <v>3.348283480671567</v>
+        <v>8.359991620693998</v>
       </c>
       <c r="S7">
-        <v>0.06334445596616249</v>
+        <v>0.03540795291003096</v>
       </c>
       <c r="T7">
-        <v>0.06334445596616249</v>
+        <v>0.02436430954543229</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.78117188688308</v>
+        <v>1.907334666666667</v>
       </c>
       <c r="H8">
-        <v>1.78117188688308</v>
+        <v>5.722004</v>
       </c>
       <c r="I8">
-        <v>0.2017863337209088</v>
+        <v>0.2095823457507795</v>
       </c>
       <c r="J8">
-        <v>0.2017863337209088</v>
+        <v>0.2623223571843268</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.140412666828495</v>
+        <v>1.921801</v>
       </c>
       <c r="N8">
-        <v>0.140412666828495</v>
+        <v>3.843602</v>
       </c>
       <c r="O8">
-        <v>0.02344805156125716</v>
+        <v>0.2963026861879742</v>
       </c>
       <c r="P8">
-        <v>0.02344805156125716</v>
+        <v>0.2443427896918877</v>
       </c>
       <c r="Q8">
-        <v>0.2500990947171957</v>
+        <v>3.665517669734666</v>
       </c>
       <c r="R8">
-        <v>0.2500990947171957</v>
+        <v>21.993106018408</v>
       </c>
       <c r="S8">
-        <v>0.004731496357444914</v>
+        <v>0.06209981202353272</v>
       </c>
       <c r="T8">
-        <v>0.004731496357444914</v>
+        <v>0.0640965765529702</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.78117188688308</v>
+        <v>1.907334666666667</v>
       </c>
       <c r="H9">
-        <v>1.78117188688308</v>
+        <v>5.722004</v>
       </c>
       <c r="I9">
-        <v>0.2017863337209088</v>
+        <v>0.2095823457507795</v>
       </c>
       <c r="J9">
-        <v>0.2017863337209088</v>
+        <v>0.2623223571843268</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.983069956635791</v>
+        <v>0.1523196666666667</v>
       </c>
       <c r="N9">
-        <v>0.983069956635791</v>
+        <v>0.456959</v>
       </c>
       <c r="O9">
-        <v>0.164166635049203</v>
+        <v>0.02348459928608122</v>
       </c>
       <c r="P9">
-        <v>0.164166635049203</v>
+        <v>0.02904947932559493</v>
       </c>
       <c r="Q9">
-        <v>1.751016569599039</v>
+        <v>0.2905245806484444</v>
       </c>
       <c r="R9">
-        <v>1.751016569599039</v>
+        <v>2.614721225836</v>
       </c>
       <c r="S9">
-        <v>0.03312658340587712</v>
+        <v>0.004921957407393983</v>
       </c>
       <c r="T9">
-        <v>0.03312658340587712</v>
+        <v>0.00762032789166743</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.78117188688308</v>
+        <v>1.907334666666667</v>
       </c>
       <c r="H10">
-        <v>1.78117188688308</v>
+        <v>5.722004</v>
       </c>
       <c r="I10">
-        <v>0.2017863337209088</v>
+        <v>0.2095823457507795</v>
       </c>
       <c r="J10">
-        <v>0.2017863337209088</v>
+        <v>0.2623223571843268</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.1836409249962</v>
+        <v>0.4109286666666667</v>
       </c>
       <c r="N10">
-        <v>1.1836409249962</v>
+        <v>1.232786</v>
       </c>
       <c r="O10">
-        <v>0.1976607528808269</v>
+        <v>0.06335685524410488</v>
       </c>
       <c r="P10">
-        <v>0.1976607528808269</v>
+        <v>0.07836981309019599</v>
       </c>
       <c r="Q10">
-        <v>2.108267939767516</v>
+        <v>0.7837784914604444</v>
       </c>
       <c r="R10">
-        <v>2.108267939767516</v>
+        <v>7.054006423144</v>
       </c>
       <c r="S10">
-        <v>0.03988523864433662</v>
+        <v>0.01327847834145208</v>
       </c>
       <c r="T10">
-        <v>0.03988523864433662</v>
+        <v>0.02055815410191532</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.78117188688308</v>
+        <v>1.907334666666667</v>
       </c>
       <c r="H11">
-        <v>1.78117188688308</v>
+        <v>5.722004</v>
       </c>
       <c r="I11">
-        <v>0.2017863337209088</v>
+        <v>0.2095823457507795</v>
       </c>
       <c r="J11">
-        <v>0.2017863337209088</v>
+        <v>0.2623223571843268</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.80130046537217</v>
+        <v>0.9978816666666667</v>
       </c>
       <c r="N11">
-        <v>1.80130046537217</v>
+        <v>2.993645</v>
       </c>
       <c r="O11">
-        <v>0.3008060963684488</v>
+        <v>0.1538530879789666</v>
       </c>
       <c r="P11">
-        <v>0.3008060963684488</v>
+        <v>0.1903099151907953</v>
       </c>
       <c r="Q11">
-        <v>3.208425748750318</v>
+        <v>1.903294296064444</v>
       </c>
       <c r="R11">
-        <v>3.208425748750318</v>
+        <v>17.12964866458</v>
       </c>
       <c r="S11">
-        <v>0.06069855934708768</v>
+        <v>0.03224489107963287</v>
       </c>
       <c r="T11">
-        <v>0.06069855934708768</v>
+        <v>0.04992254554839874</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.417099432135787</v>
+        <v>1.907334666666667</v>
       </c>
       <c r="H12">
-        <v>0.417099432135787</v>
+        <v>5.722004</v>
       </c>
       <c r="I12">
-        <v>0.04725257894960154</v>
+        <v>0.2095823457507795</v>
       </c>
       <c r="J12">
-        <v>0.04725257894960154</v>
+        <v>0.2623223571843268</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.87982053014031</v>
+        <v>1.197361</v>
       </c>
       <c r="N12">
-        <v>1.87982053014031</v>
+        <v>3.592083</v>
       </c>
       <c r="O12">
-        <v>0.3139184641402641</v>
+        <v>0.1846087501446398</v>
       </c>
       <c r="P12">
-        <v>0.3139184641402641</v>
+        <v>0.2283533989796043</v>
       </c>
       <c r="Q12">
-        <v>0.7840720756387173</v>
+        <v>2.283768143814667</v>
       </c>
       <c r="R12">
-        <v>0.7840720756387173</v>
+        <v>20.553913294332</v>
       </c>
       <c r="S12">
-        <v>0.01483345701052549</v>
+        <v>0.03869073490143317</v>
       </c>
       <c r="T12">
-        <v>0.01483345701052549</v>
+        <v>0.05990220189138284</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.417099432135787</v>
+        <v>1.907334666666667</v>
       </c>
       <c r="H13">
-        <v>0.417099432135787</v>
+        <v>5.722004</v>
       </c>
       <c r="I13">
-        <v>0.04725257894960154</v>
+        <v>0.2095823457507795</v>
       </c>
       <c r="J13">
-        <v>0.04725257894960154</v>
+        <v>0.2623223571843268</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.140412666828495</v>
+        <v>1.8056465</v>
       </c>
       <c r="N13">
-        <v>0.140412666828495</v>
+        <v>3.611293</v>
       </c>
       <c r="O13">
-        <v>0.02344805156125716</v>
+        <v>0.2783940211582333</v>
       </c>
       <c r="P13">
-        <v>0.02344805156125716</v>
+        <v>0.2295746037219218</v>
       </c>
       <c r="Q13">
-        <v>0.05856604359883671</v>
+        <v>3.443972165195333</v>
       </c>
       <c r="R13">
-        <v>0.05856604359883671</v>
+        <v>20.663832991172</v>
       </c>
       <c r="S13">
-        <v>0.001107980907612631</v>
+        <v>0.05834647199733468</v>
       </c>
       <c r="T13">
-        <v>0.001107980907612631</v>
+        <v>0.06022255119799226</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.417099432135787</v>
+        <v>0.082912</v>
       </c>
       <c r="H14">
-        <v>0.417099432135787</v>
+        <v>0.248736</v>
       </c>
       <c r="I14">
-        <v>0.04725257894960154</v>
+        <v>0.009110562375116461</v>
       </c>
       <c r="J14">
-        <v>0.04725257894960154</v>
+        <v>0.01140317515272634</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.983069956635791</v>
+        <v>1.921801</v>
       </c>
       <c r="N14">
-        <v>0.983069956635791</v>
+        <v>3.843602</v>
       </c>
       <c r="O14">
-        <v>0.164166635049203</v>
+        <v>0.2963026861879742</v>
       </c>
       <c r="P14">
-        <v>0.164166635049203</v>
+        <v>0.2443427896918877</v>
       </c>
       <c r="Q14">
-        <v>0.4100379206625412</v>
+        <v>0.159340364512</v>
       </c>
       <c r="R14">
-        <v>0.4100379206625412</v>
+        <v>0.9560421870719999</v>
       </c>
       <c r="S14">
-        <v>0.007757296883552888</v>
+        <v>0.002699484104430098</v>
       </c>
       <c r="T14">
-        <v>0.007757296883552888</v>
+        <v>0.002786283628162371</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.417099432135787</v>
+        <v>0.082912</v>
       </c>
       <c r="H15">
-        <v>0.417099432135787</v>
+        <v>0.248736</v>
       </c>
       <c r="I15">
-        <v>0.04725257894960154</v>
+        <v>0.009110562375116461</v>
       </c>
       <c r="J15">
-        <v>0.04725257894960154</v>
+        <v>0.01140317515272634</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.1836409249962</v>
+        <v>0.1523196666666667</v>
       </c>
       <c r="N15">
-        <v>1.1836409249962</v>
+        <v>0.456959</v>
       </c>
       <c r="O15">
-        <v>0.1976607528808269</v>
+        <v>0.02348459928608122</v>
       </c>
       <c r="P15">
-        <v>0.1976607528808269</v>
+        <v>0.02904947932559493</v>
       </c>
       <c r="Q15">
-        <v>0.4936959576685927</v>
+        <v>0.01262912820266667</v>
       </c>
       <c r="R15">
-        <v>0.4936959576685927</v>
+        <v>0.113662153824</v>
       </c>
       <c r="S15">
-        <v>0.009339980330738951</v>
+        <v>0.0002139579066504584</v>
       </c>
       <c r="T15">
-        <v>0.009339980330738951</v>
+        <v>0.0003312563008452615</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,247 +1396,247 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.417099432135787</v>
+        <v>0.082912</v>
       </c>
       <c r="H16">
-        <v>0.417099432135787</v>
+        <v>0.248736</v>
       </c>
       <c r="I16">
-        <v>0.04725257894960154</v>
+        <v>0.009110562375116461</v>
       </c>
       <c r="J16">
-        <v>0.04725257894960154</v>
+        <v>0.01140317515272634</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>1.80130046537217</v>
+        <v>0.4109286666666667</v>
       </c>
       <c r="N16">
-        <v>1.80130046537217</v>
+        <v>1.232786</v>
       </c>
       <c r="O16">
-        <v>0.3008060963684488</v>
+        <v>0.06335685524410488</v>
       </c>
       <c r="P16">
-        <v>0.3008060963684488</v>
+        <v>0.07836981309019599</v>
       </c>
       <c r="Q16">
-        <v>0.751321401212661</v>
+        <v>0.03407091761066667</v>
       </c>
       <c r="R16">
-        <v>0.751321401212661</v>
+        <v>0.306638258496</v>
       </c>
       <c r="S16">
-        <v>0.01421386381717158</v>
+        <v>0.000577216581592642</v>
       </c>
       <c r="T16">
-        <v>0.01421386381717158</v>
+        <v>0.0008936647053539301</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>1.14635145219639</v>
+        <v>0.082912</v>
       </c>
       <c r="H17">
-        <v>1.14635145219639</v>
+        <v>0.248736</v>
       </c>
       <c r="I17">
-        <v>0.1298684637893869</v>
+        <v>0.009110562375116461</v>
       </c>
       <c r="J17">
-        <v>0.1298684637893869</v>
+        <v>0.01140317515272634</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.87982053014031</v>
+        <v>0.9978816666666667</v>
       </c>
       <c r="N17">
-        <v>1.87982053014031</v>
+        <v>2.993645</v>
       </c>
       <c r="O17">
-        <v>0.3139184641402641</v>
+        <v>0.1538530879789666</v>
       </c>
       <c r="P17">
-        <v>0.3139184641402641</v>
+        <v>0.1903099151907953</v>
       </c>
       <c r="Q17">
-        <v>2.154934994594932</v>
+        <v>0.08273636474666667</v>
       </c>
       <c r="R17">
-        <v>2.154934994594932</v>
+        <v>0.74462728272</v>
       </c>
       <c r="S17">
-        <v>0.04076810869301985</v>
+        <v>0.001401688154636656</v>
       </c>
       <c r="T17">
-        <v>0.04076810869301985</v>
+        <v>0.002170137296221133</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.14635145219639</v>
+        <v>0.082912</v>
       </c>
       <c r="H18">
-        <v>1.14635145219639</v>
+        <v>0.248736</v>
       </c>
       <c r="I18">
-        <v>0.1298684637893869</v>
+        <v>0.009110562375116461</v>
       </c>
       <c r="J18">
-        <v>0.1298684637893869</v>
+        <v>0.01140317515272634</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.140412666828495</v>
+        <v>1.197361</v>
       </c>
       <c r="N18">
-        <v>0.140412666828495</v>
+        <v>3.592083</v>
       </c>
       <c r="O18">
-        <v>0.02344805156125716</v>
+        <v>0.1846087501446398</v>
       </c>
       <c r="P18">
-        <v>0.02344805156125716</v>
+        <v>0.2283533989796043</v>
       </c>
       <c r="Q18">
-        <v>0.1609622645256131</v>
+        <v>0.099275595232</v>
       </c>
       <c r="R18">
-        <v>0.1609622645256131</v>
+        <v>0.893480357088</v>
       </c>
       <c r="S18">
-        <v>0.003045162435114802</v>
+        <v>0.001681889533185031</v>
       </c>
       <c r="T18">
-        <v>0.003045162435114802</v>
+        <v>0.002603953805284828</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>1.14635145219639</v>
+        <v>0.082912</v>
       </c>
       <c r="H19">
-        <v>1.14635145219639</v>
+        <v>0.248736</v>
       </c>
       <c r="I19">
-        <v>0.1298684637893869</v>
+        <v>0.009110562375116461</v>
       </c>
       <c r="J19">
-        <v>0.1298684637893869</v>
+        <v>0.01140317515272634</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.983069956635791</v>
+        <v>1.8056465</v>
       </c>
       <c r="N19">
-        <v>0.983069956635791</v>
+        <v>3.611293</v>
       </c>
       <c r="O19">
-        <v>0.164166635049203</v>
+        <v>0.2783940211582333</v>
       </c>
       <c r="P19">
-        <v>0.164166635049203</v>
+        <v>0.2295746037219218</v>
       </c>
       <c r="Q19">
-        <v>1.126943672400081</v>
+        <v>0.149709762608</v>
       </c>
       <c r="R19">
-        <v>1.126943672400081</v>
+        <v>0.898258575648</v>
       </c>
       <c r="S19">
-        <v>0.02132006869931292</v>
+        <v>0.002536326094621576</v>
       </c>
       <c r="T19">
-        <v>0.02132006869931292</v>
+        <v>0.002617879416858814</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.14635145219639</v>
+        <v>0.4192326666666666</v>
       </c>
       <c r="H20">
-        <v>1.14635145219639</v>
+        <v>1.257698</v>
       </c>
       <c r="I20">
-        <v>0.1298684637893869</v>
+        <v>0.04606625529902878</v>
       </c>
       <c r="J20">
-        <v>0.1298684637893869</v>
+        <v>0.05765852382941596</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.1836409249962</v>
+        <v>1.921801</v>
       </c>
       <c r="N20">
-        <v>1.1836409249962</v>
+        <v>3.843602</v>
       </c>
       <c r="O20">
-        <v>0.1976607528808269</v>
+        <v>0.2963026861879742</v>
       </c>
       <c r="P20">
-        <v>0.1976607528808269</v>
+        <v>0.2443427896918877</v>
       </c>
       <c r="Q20">
-        <v>1.356868493248472</v>
+        <v>0.8056817580326666</v>
       </c>
       <c r="R20">
-        <v>1.356868493248472</v>
+        <v>4.834090548195999</v>
       </c>
       <c r="S20">
-        <v>0.02566989832808662</v>
+        <v>0.01364955518772323</v>
       </c>
       <c r="T20">
-        <v>0.02566989832808662</v>
+        <v>0.01408844456199568</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,309 +1706,309 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.14635145219639</v>
+        <v>0.4192326666666666</v>
       </c>
       <c r="H21">
-        <v>1.14635145219639</v>
+        <v>1.257698</v>
       </c>
       <c r="I21">
-        <v>0.1298684637893869</v>
+        <v>0.04606625529902878</v>
       </c>
       <c r="J21">
-        <v>0.1298684637893869</v>
+        <v>0.05765852382941596</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.80130046537217</v>
+        <v>0.1523196666666667</v>
       </c>
       <c r="N21">
-        <v>1.80130046537217</v>
+        <v>0.456959</v>
       </c>
       <c r="O21">
-        <v>0.3008060963684488</v>
+        <v>0.02348459928608122</v>
       </c>
       <c r="P21">
-        <v>0.3008060963684488</v>
+        <v>0.02904947932559493</v>
       </c>
       <c r="Q21">
-        <v>2.06492340432142</v>
+        <v>0.06385738004244444</v>
       </c>
       <c r="R21">
-        <v>2.06492340432142</v>
+        <v>0.574716420382</v>
       </c>
       <c r="S21">
-        <v>0.03906522563385273</v>
+        <v>0.001081847546308006</v>
       </c>
       <c r="T21">
-        <v>0.03906522563385273</v>
+        <v>0.001674950095926941</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.32856031577094</v>
+        <v>0.4192326666666666</v>
       </c>
       <c r="H22">
-        <v>4.32856031577094</v>
+        <v>1.257698</v>
       </c>
       <c r="I22">
-        <v>0.4903762084060853</v>
+        <v>0.04606625529902878</v>
       </c>
       <c r="J22">
-        <v>0.4903762084060853</v>
+        <v>0.05765852382941596</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>1.87982053014031</v>
+        <v>0.4109286666666667</v>
       </c>
       <c r="N22">
-        <v>1.87982053014031</v>
+        <v>1.232786</v>
       </c>
       <c r="O22">
-        <v>0.3139184641402641</v>
+        <v>0.06335685524410488</v>
       </c>
       <c r="P22">
-        <v>0.3139184641402641</v>
+        <v>0.07836981309019599</v>
       </c>
       <c r="Q22">
-        <v>8.136916547536835</v>
+        <v>0.1722747207364444</v>
       </c>
       <c r="R22">
-        <v>8.136916547536835</v>
+        <v>1.550472486628</v>
       </c>
       <c r="S22">
-        <v>0.1539381461937644</v>
+        <v>0.002918613068618546</v>
       </c>
       <c r="T22">
-        <v>0.1539381461937644</v>
+        <v>0.004518687735567939</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.32856031577094</v>
+        <v>0.4192326666666666</v>
       </c>
       <c r="H23">
-        <v>4.32856031577094</v>
+        <v>1.257698</v>
       </c>
       <c r="I23">
-        <v>0.4903762084060853</v>
+        <v>0.04606625529902878</v>
       </c>
       <c r="J23">
-        <v>0.4903762084060853</v>
+        <v>0.05765852382941596</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.140412666828495</v>
+        <v>0.9978816666666667</v>
       </c>
       <c r="N23">
-        <v>0.140412666828495</v>
+        <v>2.993645</v>
       </c>
       <c r="O23">
-        <v>0.02344805156125716</v>
+        <v>0.1538530879789666</v>
       </c>
       <c r="P23">
-        <v>0.02344805156125716</v>
+        <v>0.1903099151907953</v>
       </c>
       <c r="Q23">
-        <v>0.60778469746539</v>
+        <v>0.4183445921344444</v>
       </c>
       <c r="R23">
-        <v>0.60778469746539</v>
+        <v>3.76510132921</v>
       </c>
       <c r="S23">
-        <v>0.01149836661911967</v>
+        <v>0.007087435629383011</v>
       </c>
       <c r="T23">
-        <v>0.01149836661911967</v>
+        <v>0.0109729887800026</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.32856031577094</v>
+        <v>0.4192326666666666</v>
       </c>
       <c r="H24">
-        <v>4.32856031577094</v>
+        <v>1.257698</v>
       </c>
       <c r="I24">
-        <v>0.4903762084060853</v>
+        <v>0.04606625529902878</v>
       </c>
       <c r="J24">
-        <v>0.4903762084060853</v>
+        <v>0.05765852382941596</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.983069956635791</v>
+        <v>1.197361</v>
       </c>
       <c r="N24">
-        <v>0.983069956635791</v>
+        <v>3.592083</v>
       </c>
       <c r="O24">
-        <v>0.164166635049203</v>
+        <v>0.1846087501446398</v>
       </c>
       <c r="P24">
-        <v>0.164166635049203</v>
+        <v>0.2283533989796043</v>
       </c>
       <c r="Q24">
-        <v>4.255277601920343</v>
+        <v>0.5019728449926666</v>
       </c>
       <c r="R24">
-        <v>4.255277601920343</v>
+        <v>4.517755604934</v>
       </c>
       <c r="S24">
-        <v>0.08050341204221372</v>
+        <v>0.008504233814597594</v>
       </c>
       <c r="T24">
-        <v>0.08050341204221372</v>
+        <v>0.01316651989659364</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.32856031577094</v>
+        <v>0.4192326666666666</v>
       </c>
       <c r="H25">
-        <v>4.32856031577094</v>
+        <v>1.257698</v>
       </c>
       <c r="I25">
-        <v>0.4903762084060853</v>
+        <v>0.04606625529902878</v>
       </c>
       <c r="J25">
-        <v>0.4903762084060853</v>
+        <v>0.05765852382941596</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.1836409249962</v>
+        <v>1.8056465</v>
       </c>
       <c r="N25">
-        <v>1.1836409249962</v>
+        <v>3.611293</v>
       </c>
       <c r="O25">
-        <v>0.1976607528808269</v>
+        <v>0.2783940211582333</v>
       </c>
       <c r="P25">
-        <v>0.1976607528808269</v>
+        <v>0.2295746037219218</v>
       </c>
       <c r="Q25">
-        <v>5.123461136060959</v>
+        <v>0.7569859972523333</v>
       </c>
       <c r="R25">
-        <v>5.123461136060959</v>
+        <v>4.541915983513999</v>
       </c>
       <c r="S25">
-        <v>0.09692813054839207</v>
+        <v>0.0128245700523984</v>
       </c>
       <c r="T25">
-        <v>0.09692813054839207</v>
+        <v>0.01323693275932915</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2013,61 +2016,743 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.202101333333333</v>
+      </c>
+      <c r="H26">
+        <v>3.606304</v>
+      </c>
+      <c r="I26">
+        <v>0.1320896755420687</v>
+      </c>
+      <c r="J26">
+        <v>0.1653291689420815</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.921801</v>
+      </c>
+      <c r="N26">
+        <v>3.843602</v>
+      </c>
+      <c r="O26">
+        <v>0.2963026861879742</v>
+      </c>
+      <c r="P26">
+        <v>0.2443427896918877</v>
+      </c>
+      <c r="Q26">
+        <v>2.310199544501333</v>
+      </c>
+      <c r="R26">
+        <v>13.861197267008</v>
+      </c>
+      <c r="S26">
+        <v>0.0391385256808129</v>
+      </c>
+      <c r="T26">
+        <v>0.0403969903567496</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.202101333333333</v>
+      </c>
+      <c r="H27">
+        <v>3.606304</v>
+      </c>
+      <c r="I27">
+        <v>0.1320896755420687</v>
+      </c>
+      <c r="J27">
+        <v>0.1653291689420815</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.1523196666666667</v>
+      </c>
+      <c r="N27">
+        <v>0.456959</v>
+      </c>
+      <c r="O27">
+        <v>0.02348459928608122</v>
+      </c>
+      <c r="P27">
+        <v>0.02904947932559493</v>
+      </c>
+      <c r="Q27">
+        <v>0.1831036743928889</v>
+      </c>
+      <c r="R27">
+        <v>1.647933069536</v>
+      </c>
+      <c r="S27">
+        <v>0.003102073099933965</v>
+      </c>
+      <c r="T27">
+        <v>0.004802726275100789</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.202101333333333</v>
+      </c>
+      <c r="H28">
+        <v>3.606304</v>
+      </c>
+      <c r="I28">
+        <v>0.1320896755420687</v>
+      </c>
+      <c r="J28">
+        <v>0.1653291689420815</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.4109286666666667</v>
+      </c>
+      <c r="N28">
+        <v>1.232786</v>
+      </c>
+      <c r="O28">
+        <v>0.06335685524410488</v>
+      </c>
+      <c r="P28">
+        <v>0.07836981309019599</v>
+      </c>
+      <c r="Q28">
+        <v>0.4939778981048888</v>
+      </c>
+      <c r="R28">
+        <v>4.445801082944</v>
+      </c>
+      <c r="S28">
+        <v>0.008368786452559625</v>
+      </c>
+      <c r="T28">
+        <v>0.01295681606834836</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.202101333333333</v>
+      </c>
+      <c r="H29">
+        <v>3.606304</v>
+      </c>
+      <c r="I29">
+        <v>0.1320896755420687</v>
+      </c>
+      <c r="J29">
+        <v>0.1653291689420815</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.9978816666666667</v>
+      </c>
+      <c r="N29">
+        <v>2.993645</v>
+      </c>
+      <c r="O29">
+        <v>0.1538530879789666</v>
+      </c>
+      <c r="P29">
+        <v>0.1903099151907953</v>
+      </c>
+      <c r="Q29">
+        <v>1.199554882008889</v>
+      </c>
+      <c r="R29">
+        <v>10.79599393808</v>
+      </c>
+      <c r="S29">
+        <v>0.02032240447228704</v>
+      </c>
+      <c r="T29">
+        <v>0.0314637801199322</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.202101333333333</v>
+      </c>
+      <c r="H30">
+        <v>3.606304</v>
+      </c>
+      <c r="I30">
+        <v>0.1320896755420687</v>
+      </c>
+      <c r="J30">
+        <v>0.1653291689420815</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.197361</v>
+      </c>
+      <c r="N30">
+        <v>3.592083</v>
+      </c>
+      <c r="O30">
+        <v>0.1846087501446398</v>
+      </c>
+      <c r="P30">
+        <v>0.2283533989796043</v>
+      </c>
+      <c r="Q30">
+        <v>1.439349254581333</v>
+      </c>
+      <c r="R30">
+        <v>12.954143291232</v>
+      </c>
+      <c r="S30">
+        <v>0.02438490990883229</v>
+      </c>
+      <c r="T30">
+        <v>0.03775347767839755</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.202101333333333</v>
+      </c>
+      <c r="H31">
+        <v>3.606304</v>
+      </c>
+      <c r="I31">
+        <v>0.1320896755420687</v>
+      </c>
+      <c r="J31">
+        <v>0.1653291689420815</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.8056465</v>
+      </c>
+      <c r="N31">
+        <v>3.611293</v>
+      </c>
+      <c r="O31">
+        <v>0.2783940211582333</v>
+      </c>
+      <c r="P31">
+        <v>0.2295746037219218</v>
+      </c>
+      <c r="Q31">
+        <v>2.170570065178667</v>
+      </c>
+      <c r="R31">
+        <v>13.023420391072</v>
+      </c>
+      <c r="S31">
+        <v>0.03677297592764284</v>
+      </c>
+      <c r="T31">
+        <v>0.03795537844355303</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>4.331586</v>
+      </c>
+      <c r="H32">
+        <v>8.663171999999999</v>
+      </c>
+      <c r="I32">
+        <v>0.4759646907104063</v>
+      </c>
+      <c r="J32">
+        <v>0.3971587051902198</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.921801</v>
+      </c>
+      <c r="N32">
+        <v>3.843602</v>
+      </c>
+      <c r="O32">
+        <v>0.2963026861879742</v>
+      </c>
+      <c r="P32">
+        <v>0.2443427896918877</v>
+      </c>
+      <c r="Q32">
+        <v>8.324446306385999</v>
+      </c>
+      <c r="R32">
+        <v>33.297785225544</v>
+      </c>
+      <c r="S32">
+        <v>0.1410296163881217</v>
+      </c>
+      <c r="T32">
+        <v>0.0970428659765963</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>4.331586</v>
+      </c>
+      <c r="H33">
+        <v>8.663171999999999</v>
+      </c>
+      <c r="I33">
+        <v>0.4759646907104063</v>
+      </c>
+      <c r="J33">
+        <v>0.3971587051902198</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.1523196666666667</v>
+      </c>
+      <c r="N33">
+        <v>0.456959</v>
+      </c>
+      <c r="O33">
+        <v>0.02348459928608122</v>
+      </c>
+      <c r="P33">
+        <v>0.02904947932559493</v>
+      </c>
+      <c r="Q33">
+        <v>0.6597857356579999</v>
+      </c>
+      <c r="R33">
+        <v>3.958714413948</v>
+      </c>
+      <c r="S33">
+        <v>0.01117784003565747</v>
+      </c>
+      <c r="T33">
+        <v>0.01153725359540334</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>4.331586</v>
+      </c>
+      <c r="H34">
+        <v>8.663171999999999</v>
+      </c>
+      <c r="I34">
+        <v>0.4759646907104063</v>
+      </c>
+      <c r="J34">
+        <v>0.3971587051902198</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.4109286666666667</v>
+      </c>
+      <c r="N34">
+        <v>1.232786</v>
+      </c>
+      <c r="O34">
+        <v>0.06335685524410488</v>
+      </c>
+      <c r="P34">
+        <v>0.07836981309019599</v>
+      </c>
+      <c r="Q34">
+        <v>1.779972859532</v>
+      </c>
+      <c r="R34">
+        <v>10.679837157192</v>
+      </c>
+      <c r="S34">
+        <v>0.03015562601064436</v>
+      </c>
+      <c r="T34">
+        <v>0.03112525349290177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>4.331586</v>
+      </c>
+      <c r="H35">
+        <v>8.663171999999999</v>
+      </c>
+      <c r="I35">
+        <v>0.4759646907104063</v>
+      </c>
+      <c r="J35">
+        <v>0.3971587051902198</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.9978816666666667</v>
+      </c>
+      <c r="N35">
+        <v>2.993645</v>
+      </c>
+      <c r="O35">
+        <v>0.1538530879789666</v>
+      </c>
+      <c r="P35">
+        <v>0.1903099151907953</v>
+      </c>
+      <c r="Q35">
+        <v>4.32241025699</v>
+      </c>
+      <c r="R35">
+        <v>25.93446154194</v>
+      </c>
+      <c r="S35">
+        <v>0.07322863743474976</v>
+      </c>
+      <c r="T35">
+        <v>0.0755832395020368</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>4.32856031577094</v>
-      </c>
-      <c r="H26">
-        <v>4.32856031577094</v>
-      </c>
-      <c r="I26">
-        <v>0.4903762084060853</v>
-      </c>
-      <c r="J26">
-        <v>0.4903762084060853</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>1.80130046537217</v>
-      </c>
-      <c r="N26">
-        <v>1.80130046537217</v>
-      </c>
-      <c r="O26">
-        <v>0.3008060963684488</v>
-      </c>
-      <c r="P26">
-        <v>0.3008060963684488</v>
-      </c>
-      <c r="Q26">
-        <v>7.7970377111897</v>
-      </c>
-      <c r="R26">
-        <v>7.7970377111897</v>
-      </c>
-      <c r="S26">
-        <v>0.1475081530025954</v>
-      </c>
-      <c r="T26">
-        <v>0.1475081530025954</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>4.331586</v>
+      </c>
+      <c r="H36">
+        <v>8.663171999999999</v>
+      </c>
+      <c r="I36">
+        <v>0.4759646907104063</v>
+      </c>
+      <c r="J36">
+        <v>0.3971587051902198</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1.197361</v>
+      </c>
+      <c r="N36">
+        <v>3.592083</v>
+      </c>
+      <c r="O36">
+        <v>0.1846087501446398</v>
+      </c>
+      <c r="P36">
+        <v>0.2283533989796043</v>
+      </c>
+      <c r="Q36">
+        <v>5.186472144545999</v>
+      </c>
+      <c r="R36">
+        <v>31.11883286727599</v>
+      </c>
+      <c r="S36">
+        <v>0.08786724666502817</v>
+      </c>
+      <c r="T36">
+        <v>0.09069254026452529</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>4.331586</v>
+      </c>
+      <c r="H37">
+        <v>8.663171999999999</v>
+      </c>
+      <c r="I37">
+        <v>0.4759646907104063</v>
+      </c>
+      <c r="J37">
+        <v>0.3971587051902198</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.8056465</v>
+      </c>
+      <c r="N37">
+        <v>3.611293</v>
+      </c>
+      <c r="O37">
+        <v>0.2783940211582333</v>
+      </c>
+      <c r="P37">
+        <v>0.2295746037219218</v>
+      </c>
+      <c r="Q37">
+        <v>7.821313100348999</v>
+      </c>
+      <c r="R37">
+        <v>31.285252401396</v>
+      </c>
+      <c r="S37">
+        <v>0.1325057241762048</v>
+      </c>
+      <c r="T37">
+        <v>0.0911775523587563</v>
       </c>
     </row>
   </sheetData>
